--- a/data/soyabean/soya_part_1_2014_2015.xls.xlsx
+++ b/data/soyabean/soya_part_1_2014_2015.xls.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\coetzeeLA\OneDrive - University of the Free State\Documents\1. Research\Publications\Rothmann_LA\Sclerotinia silos\sagl_data\soyabean\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ufsacza-my.sharepoint.com/personal/coetzeela_ufs_ac_za/Documents/Documents/GitHub/sclerotia_silo/data/soyabean/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6CE0E1B6-A3BF-4C9B-BB8B-252A2D92E7C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{6CE0E1B6-A3BF-4C9B-BB8B-252A2D92E7C6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{376C9DDA-9D7C-4C8D-A81A-3472C905B0D8}"/>
   <bookViews>
-    <workbookView xWindow="3465" yWindow="3465" windowWidth="18000" windowHeight="9360"/>
+    <workbookView xWindow="23880" yWindow="-1680" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="soya_part_1_2014_2015" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="65">
   <si>
     <t>Region</t>
   </si>
@@ -374,11 +374,14 @@
   <si>
     <t>T2 [max. value]</t>
   </si>
+  <si>
+    <t>No. of samples_scl</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1297,10 +1300,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G68"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1671,7 +1676,7 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
-        <v>17</v>
+        <v>64</v>
       </c>
       <c r="B17" s="8">
         <v>1</v>
